--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_127_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_127_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.556823040159977, 6.102129802578937]</t>
+          <t>[5.551836728177189, 6.107116114561725]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.17754258413616597, 0.4688752915386054]</t>
+          <t>[0.1775650036721359, 0.4688528720026355]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>5.263082194262303e-05</v>
+        <v>5.251391270988393e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>5.263082194262303e-05</v>
+        <v>5.251391270988393e-05</v>
       </c>
       <c r="W2" t="n">
         <v>15.24148148148201</v>
